--- a/backend/src/excel_handler/files/MOLI.xlsx
+++ b/backend/src/excel_handler/files/MOLI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45979.5</v>
+        <v>49892.41</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9195.9</v>
+        <v>7127.49</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38805.94</v>
+        <v>38654.99</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5948.77</v>
+        <v>6882.58</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,27 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1224.79</v>
+        <v>1113.82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta acciones</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3241.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLI.xlsx
+++ b/backend/src/excel_handler/files/MOLI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,48 +436,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49892.41</v>
+        <v>39198.33</v>
+      </c>
+      <c r="C2" t="n">
+        <v>38825.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7127.49</v>
+        <v>7000.4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5749.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38654.99</v>
+        <v>3244.12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3240.52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6882.58</v>
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -489,6 +506,9 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -499,6 +519,9 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -507,27 +530,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1113.82</v>
+        <v>1117.52</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1121.59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3241.02</v>
+        <v>7222.91</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6991.12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>50560.37</v>
+      </c>
+      <c r="C10" t="n">
+        <v>48937.81</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLI.xlsx
+++ b/backend/src/excel_handler/files/MOLI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,118 +443,91 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39198.33</v>
-      </c>
-      <c r="C2" t="n">
-        <v>38825.95</v>
+        <v>48937.81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7000.4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5749.75</v>
+        <v>6991.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3244.12</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3240.52</v>
+        <v>38825.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
+        <v>5749.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
+        <v>3240.52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1117.52</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1121.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7222.91</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6991.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50560.37</v>
-      </c>
-      <c r="C10" t="n">
-        <v>48937.81</v>
+        <v>1121.59</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLI.xlsx
+++ b/backend/src/excel_handler/files/MOLI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,95 +439,125 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48937.81</v>
+        <v>38825.95</v>
+      </c>
+      <c r="C2" t="n">
+        <v>39026.29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6991.12</v>
+        <v>5749.75</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5743.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38825.95</v>
+        <v>3240.52</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3246.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5749.75</v>
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3240.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1121.59</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1109.86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>6991.12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8187.57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1121.59</v>
+        <v>48937.81</v>
+      </c>
+      <c r="C10" t="n">
+        <v>49125.41</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLI.xlsx
+++ b/backend/src/excel_handler/files/MOLI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>39026.29</v>
       </c>
+      <c r="D2" t="n">
+        <v>38917.24</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>5743.12</v>
       </c>
+      <c r="D3" t="n">
+        <v>6722.06</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>3246.14</v>
       </c>
+      <c r="D4" t="n">
+        <v>3239.99</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>0</v>
       </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -507,6 +524,9 @@
         <v>0</v>
       </c>
       <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -520,6 +540,9 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -533,6 +556,9 @@
       <c r="C8" t="n">
         <v>1109.86</v>
       </c>
+      <c r="D8" t="n">
+        <v>1039.8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -546,6 +572,9 @@
       <c r="C9" t="n">
         <v>8187.57</v>
       </c>
+      <c r="D9" t="n">
+        <v>7131.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -558,6 +587,9 @@
       </c>
       <c r="C10" t="n">
         <v>49125.41</v>
+      </c>
+      <c r="D10" t="n">
+        <v>49919.09</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLI.xlsx
+++ b/backend/src/excel_handler/files/MOLI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>38917.24</v>
       </c>
+      <c r="E2" t="n">
+        <v>38657.39</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>6722.06</v>
       </c>
+      <c r="E3" t="n">
+        <v>5791.58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,9 @@
       <c r="D4" t="n">
         <v>3239.99</v>
       </c>
+      <c r="E4" t="n">
+        <v>3239.41</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -513,6 +527,9 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -527,6 +544,9 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -543,6 +563,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -559,6 +582,9 @@
       <c r="D8" t="n">
         <v>1039.8</v>
       </c>
+      <c r="E8" t="n">
+        <v>1095.66</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -575,6 +601,9 @@
       <c r="D9" t="n">
         <v>7131.3</v>
       </c>
+      <c r="E9" t="n">
+        <v>6969.15</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -590,6 +619,9 @@
       </c>
       <c r="D10" t="n">
         <v>49919.09</v>
+      </c>
+      <c r="E10" t="n">
+        <v>48784.04</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLI.xlsx
+++ b/backend/src/excel_handler/files/MOLI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>38657.39</v>
       </c>
+      <c r="F2" t="n">
+        <v>38849.05</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>5791.58</v>
       </c>
+      <c r="F3" t="n">
+        <v>5968.12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="E4" t="n">
         <v>3239.41</v>
       </c>
+      <c r="F4" t="n">
+        <v>3246.81</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -530,6 +544,9 @@
       <c r="E5" t="n">
         <v>0</v>
       </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -547,6 +564,9 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -566,6 +586,9 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -585,6 +608,9 @@
       <c r="E8" t="n">
         <v>1095.66</v>
       </c>
+      <c r="F8" t="n">
+        <v>1112</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -604,6 +630,9 @@
       <c r="E9" t="n">
         <v>6969.15</v>
       </c>
+      <c r="F9" t="n">
+        <v>7025.14</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -622,6 +651,9 @@
       </c>
       <c r="E10" t="n">
         <v>48784.04</v>
+      </c>
+      <c r="F10" t="n">
+        <v>49175.98</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLI.xlsx
+++ b/backend/src/excel_handler/files/MOLI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>38849.05</v>
       </c>
+      <c r="G2" t="n">
+        <v>38627.98</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>5968.12</v>
       </c>
+      <c r="G3" t="n">
+        <v>5919.05</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +536,9 @@
       <c r="F4" t="n">
         <v>3246.81</v>
       </c>
+      <c r="G4" t="n">
+        <v>3243.05</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,6 +561,9 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -567,6 +584,9 @@
       <c r="F6" t="n">
         <v>0</v>
       </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -589,6 +609,9 @@
       <c r="F7" t="n">
         <v>0</v>
       </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -611,6 +634,9 @@
       <c r="F8" t="n">
         <v>1112</v>
       </c>
+      <c r="G8" t="n">
+        <v>1069.85</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -633,6 +659,9 @@
       <c r="F9" t="n">
         <v>7025.14</v>
       </c>
+      <c r="G9" t="n">
+        <v>6979.99</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -654,6 +683,9 @@
       </c>
       <c r="F10" t="n">
         <v>49175.98</v>
+      </c>
+      <c r="G10" t="n">
+        <v>48859.93</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLI.xlsx
+++ b/backend/src/excel_handler/files/MOLI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>38627.98</v>
       </c>
+      <c r="H2" t="n">
+        <v>39040.54</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>5919.05</v>
       </c>
+      <c r="H3" t="n">
+        <v>6747.75</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>3243.05</v>
       </c>
+      <c r="H4" t="n">
+        <v>3243.19</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -587,6 +604,9 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -612,6 +632,9 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -637,6 +660,9 @@
       <c r="G8" t="n">
         <v>1069.85</v>
       </c>
+      <c r="H8" t="n">
+        <v>989.62</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -662,6 +688,9 @@
       <c r="G9" t="n">
         <v>6979.99</v>
       </c>
+      <c r="H9" t="n">
+        <v>7145.87</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -686,6 +715,9 @@
       </c>
       <c r="G10" t="n">
         <v>48859.93</v>
+      </c>
+      <c r="H10" t="n">
+        <v>50021.1</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLI.xlsx
+++ b/backend/src/excel_handler/files/MOLI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>39040.54</v>
       </c>
+      <c r="I2" t="n">
+        <v>38700.3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>6747.75</v>
       </c>
+      <c r="I3" t="n">
+        <v>7104.52</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -553,6 +564,9 @@
       <c r="H4" t="n">
         <v>3243.19</v>
       </c>
+      <c r="I4" t="n">
+        <v>3248.31</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -581,6 +595,9 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -607,6 +624,9 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -635,6 +655,9 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -663,6 +686,9 @@
       <c r="H8" t="n">
         <v>989.62</v>
       </c>
+      <c r="I8" t="n">
+        <v>944.92</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -691,6 +717,9 @@
       <c r="H9" t="n">
         <v>7145.87</v>
       </c>
+      <c r="I9" t="n">
+        <v>7142.58</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -718,6 +747,9 @@
       </c>
       <c r="H10" t="n">
         <v>50021.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>49998.05</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLI.xlsx
+++ b/backend/src/excel_handler/files/MOLI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>38700.3</v>
       </c>
+      <c r="J2" t="n">
+        <v>38642.07</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>7104.52</v>
       </c>
+      <c r="J3" t="n">
+        <v>7018.17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>3248.31</v>
       </c>
+      <c r="J4" t="n">
+        <v>3241.34</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -598,6 +612,9 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -627,6 +644,9 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -658,6 +678,9 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -689,6 +712,9 @@
       <c r="I8" t="n">
         <v>944.92</v>
       </c>
+      <c r="J8" t="n">
+        <v>919.6900000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -720,6 +746,9 @@
       <c r="I9" t="n">
         <v>7142.58</v>
       </c>
+      <c r="J9" t="n">
+        <v>7117.32</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -750,6 +779,9 @@
       </c>
       <c r="I10" t="n">
         <v>49998.05</v>
+      </c>
+      <c r="J10" t="n">
+        <v>49821.27</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLI.xlsx
+++ b/backend/src/excel_handler/files/MOLI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>38642.07</v>
       </c>
+      <c r="K2" t="n">
+        <v>38836.55</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>7018.17</v>
       </c>
+      <c r="K3" t="n">
+        <v>6710.41</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>3241.34</v>
       </c>
+      <c r="K4" t="n">
+        <v>3246.53</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -615,6 +629,9 @@
       <c r="J5" t="n">
         <v>0</v>
       </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -647,6 +664,9 @@
       <c r="J6" t="n">
         <v>0</v>
       </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -681,6 +701,9 @@
       <c r="J7" t="n">
         <v>0</v>
       </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -715,6 +738,9 @@
       <c r="J8" t="n">
         <v>919.6900000000001</v>
       </c>
+      <c r="K8" t="n">
+        <v>891.45</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -749,6 +775,9 @@
       <c r="J9" t="n">
         <v>7117.32</v>
       </c>
+      <c r="K9" t="n">
+        <v>7097.85</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -782,6 +811,9 @@
       </c>
       <c r="J10" t="n">
         <v>49821.27</v>
+      </c>
+      <c r="K10" t="n">
+        <v>49684.94</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLI.xlsx
+++ b/backend/src/excel_handler/files/MOLI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>38836.55</v>
       </c>
+      <c r="L2" t="n">
+        <v>38942.44</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>6710.41</v>
       </c>
+      <c r="L3" t="n">
+        <v>6910.22</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>3246.53</v>
       </c>
+      <c r="L4" t="n">
+        <v>3245.17</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -632,6 +646,9 @@
       <c r="K5" t="n">
         <v>0</v>
       </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -667,6 +684,9 @@
       <c r="K6" t="n">
         <v>0</v>
       </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -704,6 +724,9 @@
       <c r="K7" t="n">
         <v>0</v>
       </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -741,6 +764,9 @@
       <c r="K8" t="n">
         <v>891.45</v>
       </c>
+      <c r="L8" t="n">
+        <v>1101.09</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -778,6 +804,9 @@
       <c r="K9" t="n">
         <v>7097.85</v>
       </c>
+      <c r="L9" t="n">
+        <v>7171.27</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -814,6 +843,9 @@
       </c>
       <c r="K10" t="n">
         <v>49684.94</v>
+      </c>
+      <c r="L10" t="n">
+        <v>50198.92</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLI.xlsx
+++ b/backend/src/excel_handler/files/MOLI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>38942.44</v>
       </c>
+      <c r="M2" t="n">
+        <v>38941.45</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>6910.22</v>
       </c>
+      <c r="M3" t="n">
+        <v>6272.3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +620,9 @@
       <c r="L4" t="n">
         <v>3245.17</v>
       </c>
+      <c r="M4" t="n">
+        <v>3245.89</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -649,6 +663,9 @@
       <c r="L5" t="n">
         <v>0</v>
       </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -687,6 +704,9 @@
       <c r="L6" t="n">
         <v>0</v>
       </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -727,6 +747,9 @@
       <c r="L7" t="n">
         <v>0</v>
       </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -767,6 +790,9 @@
       <c r="L8" t="n">
         <v>1101.09</v>
       </c>
+      <c r="M8" t="n">
+        <v>1010.55</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -807,6 +833,9 @@
       <c r="L9" t="n">
         <v>7171.27</v>
       </c>
+      <c r="M9" t="n">
+        <v>7067.17</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -846,6 +875,9 @@
       </c>
       <c r="L10" t="n">
         <v>50198.92</v>
+      </c>
+      <c r="M10" t="n">
+        <v>49470.19</v>
       </c>
     </row>
   </sheetData>
